--- a/docs/unit1/07_analytical/earthdam_KEY.xlsx
+++ b/docs/unit1/07_analytical/earthdam_KEY.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25317"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/5. analytical solutions - profile/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB775387-1A15-0F44-8871-8002D727F2CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="100" windowWidth="24820" windowHeight="15520"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="26740" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,8 +30,19 @@
     <definedName name="xl">Sheet1!$B$20</definedName>
     <definedName name="xu">Sheet1!$B$19</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -140,13 +157,13 @@
     <t>Flow Through an Earth Dam - Analytical Solution</t>
   </si>
   <si>
-    <t>Brigham Young University - CE En 544</t>
+    <t>Brigham Young University - CE 544</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -269,7 +286,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -346,7 +369,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -564,11 +593,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1351"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047050000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -576,6 +608,39 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="F0AD00"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="12700">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd type="none" w="sm" len="sm"/>
+                  <a:tailEnd type="none" w="sm" len="sm"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="D4D4D6"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -605,11 +670,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1352"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048050000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="black">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -617,6 +685,16 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -913,15 +991,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
@@ -932,17 +1010,17 @@
     <col min="7" max="7" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28">
+    <row r="1" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -953,7 +1031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -964,7 +1042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -975,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>2</v>
       </c>
@@ -986,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -997,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1009,7 +1087,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -1020,7 +1098,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1110,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1056,19 +1134,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="7">
         <f>Ht/TAN(a)</f>
-        <v>17.320508075688775</v>
+        <v>17.320508075688778</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
@@ -1080,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1092,13 +1170,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="6">
         <f>K*L*TAN(a)*SIN(a)</f>
-        <v>2.8323267410956417E-2</v>
+        <v>2.832326741095641E-2</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
@@ -1170,13 +1248,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1188,13 +1266,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
